--- a/EXTRAS/OWASP_Top10/cumplimiento.xlsx
+++ b/EXTRAS/OWASP_Top10/cumplimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonio\Documents\3.4833curso.symfony\pruebas\motocampeonas\EXTRAS\OWASP_Top10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EEB45A-CF9B-44D5-96BB-D5E4FED156CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE12EF-D6C3-47FE-B03C-EBD0D2992E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="3285" windowWidth="15300" windowHeight="7875" xr2:uid="{34E274A1-EE12-428D-9B06-1854AB3A6704}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{34E274A1-EE12-428D-9B06-1854AB3A6704}"/>
   </bookViews>
   <sheets>
     <sheet name="Top10_2021" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Controles_ES" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Controles_EN!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Controles_ES!$A$1:$F$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Top10_2021!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>Description</t>
   </si>
@@ -47,46 +49,6 @@
   </si>
   <si>
     <t>Attack Scenarios</t>
-  </si>
-  <si>
-    <t>[34, 19013, 94.55%, 3.81%]
-Broken Access Control</t>
-  </si>
-  <si>
-    <t>[29, 3075, 79.33%, 4.49%]
-Cryptographic Failures</t>
-  </si>
-  <si>
-    <t>[33, 32078, 94.04%, 19%]
-Injection</t>
-  </si>
-  <si>
-    <t>[40, 2691, 77.25%, 3%]
-Insecure Design</t>
-  </si>
-  <si>
-    <t>[20, 789, 89.58%, 4.51%]
-Security Misconfiguration</t>
-  </si>
-  <si>
-    <t>[3, 0, 51.78%, 8.77%]
-Vulnerable and Outdated Components</t>
-  </si>
-  <si>
-    <t>[22, 3897, 79.51%, 2.55%]
-Identification and Authentication Failures</t>
-  </si>
-  <si>
-    <t>[10, 1152, 75.04%, 2.05%]
-Software and Data Integrity Failures</t>
-  </si>
-  <si>
-    <t>[4, 242, 53.67%, 6.51%]
-Security Logging and Monitoring Failures</t>
-  </si>
-  <si>
-    <t>[1, 385, 67.72%, 2.72%]
-Server-Side Request Forgery (SSRF)</t>
   </si>
   <si>
     <t>Categorías</t>
@@ -200,10 +162,278 @@
 4) Constantly evaluates threats (threat modeling) and ensures that code is robustly designed and tested to prevent attack methods.</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Missing appropiate security hardening across any part of the application stack or improperly configured permissions on cloud services.
+    <t>1) Missing appropiate security hardening across any part of the application stack or improperly configured permissions on cloud services.
 2) unnecessary features are enabled or installed (ports, services, pages, accounts, privileges…).
-3) default accounts are still enabled and unchanged
-4) </t>
+3) default accounts are still enabled and unchanged.
+4) Error handling reveals stack traces or other overly informative error messages to users.
+5) for upgraded systems, the latest security features are disabled or not configured securely.
+6) the security settings in the app servers, app frameworks, libraries, databases, etc. are not set to secure values.
+7) the server does not send security headers or directives, or they are not set to secure values.</t>
+  </si>
+  <si>
+    <t>1) A repeatable hardening process (preferably automated) to review, verify (effectiveness) and deploy a locked down environment (adding security notes, updates, patches...).
+2) Development, QA and production environments should all be configured identically, with different credentials in each environment.
+3) Remove or don't install unused (features, frameworks, components, documentation, samples...)
+4) A segmented app architecture (segmentation, containerization, cloud security groups...)
+5) Sending security directives to clients (security headers...)</t>
+  </si>
+  <si>
+    <t>1) the app server comes with sample apps not removed in the production server. These sample apps have known security flaws attackers use to compromise the server.
+2) Directory listing is not disabled on the server. The attacker finds and downloads the compiled Java classes, which they decompile and reverse engineer to view the code. The attacker finds a severe access control flaw in the app.
+3) the app server's configuration allows detailed error messages (stack traces, to be returned to users...). This exposes sensitive information or underlying flaws (component version...).
+4) a Cloud Service Provider (CSP) has deault sharing permissions open to the internet by other CSP users. This allows access to sensitive data stored.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Consider to know all components you use (directly and nested dependencies) for both (the client and server side).
+2) Software that are vulnerable, unsupported or out of date (OS, web/app server, database management system (DBMS), apps, APIs, runtime environments, libraries...).
+3) scan for vulnerabilities regularly and subscribe to security bulletins.
+4) Fix or upgrade in a risk-based, timely fashion (monthly might be high risk).
+5) Test the compatibility of updates, upgrades or patches
+6) </t>
+  </si>
+  <si>
+    <t>1) there should be a patch management process for the next tasks:
+1.1) Remove unused dependencies, unnecessary features, components, files, documentation…
+1.2) Inventory the versions (frameworks, libraries, dependencies…).
+1.3) Continuously monitor sources (CWE, CVE, National Vulnerabilit Database, email alerts...).
+1.4) Only obtain components from official sources over secure links (signed packages)
+1.5) monitor for libraries and components that are unmaintained. If patching is not possible, consider deploying virtual patch to monitor, detect or protect against the discovered issue.
+2) Ensure an ongoing plan for monitoring, triaging and applying updates or configuration changes for the lifetime of the app portfolio.</t>
+  </si>
+  <si>
+    <t>1) Components typically run with the same privileges as the app itself. This could result in serious security flaws (accidental: Coding error or intentional: Backdoor in a component) because of remote code execution vulnerability that enables the execution of arbitrary code on the server (CVE-2017-5638).</t>
+  </si>
+  <si>
+    <t>1) Confirmation of the user's identity, authentication and session management.
+2) There are automated attacks (e. g. credential stuffing, brute force...) where the attacker has a list of valid usernames and passwords.
+3) There are weak credential recovery processes (knowledge-based answers...), weak password hashes stored, missing or ineffective multi-factor auth.
+4) Exposes session identifier in the URL or reused it after successful login.
+5) Does not correctly invalidate Session IDs. User sessions or authentication tokens (mainly SSO tokens) aren't properly invalidated during logout or a period of inactivity.</t>
+  </si>
+  <si>
+    <t>1) Implement multi-factor authentication for security prevention
+2) Don't ship or deploy default credentials
+3) Checking weak passwords against the top 10k worst passwords list
+4) Align password length, complexity and rotation with standards
+5) Ensure registration, credential recovery and API pathways are hardened
+6) Limit login attempts and log all failures with the correct report to the corresponding staff.
+7) use a server-side secure and manage session IDs (random with high entropy after login, not being in the URL, securely stored, invalidated after logout...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) The use of known password lists is a common attack.
+2) The use of one factor authentication.
+3) App session timeouts aren't set correctly. For example in a public computer site, a user didn't logout and just close the browser tab therefore this user may still be authenticated. </t>
+  </si>
+  <si>
+    <t>1) In relation of lack protection in the code and the infrastructure because of integrity violations.
+2) An app relies upon plugins, libraries, modules, repositories or CDN from untrusted sources.
+3) An insecure CI/CD pipeline can introduce the potential for: unauthorized access, malicious code, system compromise...
+4) Having an auto-update functionality regardless the lack of integrity verification and applied to the previously trusted app.
+5) Objects or data are encoded or serialized into a structure that an attacker can see and modify (vulnerable to insecure deserialization).</t>
+  </si>
+  <si>
+    <t>1) Use digital signatures or similar mechanisms to verify the sw or data is from the expected source and has not been altered.
+2) Consume trusted repositories. If you have a higher risk profile, consider hosting an internal known-good repository that's vetted.
+3) Use a sw supply chain security tool (e. g. nessus, OWASP Dependency Check, OWASP CycloneDX...).
+4) Ensure your CI/CD pipeline (build/deploy/QA... process) has proper segregation, configuration and access control for code integrity. Apply a review process for code and configuration changes.
+5) Unsigned or unencrypted serialized data is not sent to untrusted clients without verification (e. g. integrity check, digital signature, detect tampering, replay of the serialized data...).</t>
+  </si>
+  <si>
+    <t>1) Update without signing: Many home routers, set-top boxes, device firmware and so on do not verify updates via signed firmware.
+2) SolarWinds malicious update: The SolarWinds Orion attack is one of the most far-reaching and most significant breaches of this nature in history (this attack update mechanisms).
+3) Insecure deserialization: A React application calls a set of Spring Boot microservices. An attacker notices the "rO0" Java object signature (in base64) and uses the Java Serial Killer tool to spread remote code execution on the application server.</t>
+  </si>
+  <si>
+    <t>1) Were attacks detected during a penetration test?
+2) It can be very impactful for accountability, visibility, incident alerting and forensics.
+3) To help detect, escalate and respond to active breaches.
+4) Without logging and monitoring, breaches cannot be detected.
+5) Are auditable events logged (e. g. logins, transactions...)?
+6) Are warnings and errors generating clear log messages in real-time or near this?
+7) Are logs, from apps and APIs, monitored and correctly stored in different sites?
+8) Are alerting thresholds and response escalation processes being effective?
+9) Are penetration testing and scans by Dynamic Application Security Testing (DAST) tools triggering alerts?</t>
+  </si>
+  <si>
+    <t>1) Ensure all login, access control and server-side input validation failures can be logged with sufficient user context to identify suspicious or malicious accounts, in a correct format to manage, effective team communication and held enough time to allow forensic analysis.
+2) Are log data encoded correctly to prevent injections or attacks on the logging or monitoring systems?
+3) Have transactions an audit trail with integrity controls to prevent tampering or deletion (e. g. database tables...)?
+4) Establish or adopt an incident response and recovery plan.
+There are commercial and open-source applications for log correlation (e. g. OWASP ModSecurity Core Rule Set, Elasticsearch, Logstash, Kibana (ELK) stack...).</t>
+  </si>
+  <si>
+    <t>1) A children's health plan provider's website operator couldn't detect a breach due to a lack of monitoring and logging. An attacker accessed and modified thounsands of sensitive health records.
+2) A data breach involving more than ten years' worth of personal data of millions of people.
+3) A breach was reportedly caused by payment application security application security vulnerabilities exploited by attackers, who hasvested a lot of customer payment records. The airline was fined 20 million pounds as a result by the privacy regulator.</t>
+  </si>
+  <si>
+    <t>[34, 19013, 94.55%, 3.81%]
+A01:2021 Broken Access Control</t>
+  </si>
+  <si>
+    <t>[29, 3075, 79.33%, 4.49%]
+A02:2021 Cryptographic Failures</t>
+  </si>
+  <si>
+    <t>[33, 32078, 94.04%, 19%]
+A03:2021 Injection</t>
+  </si>
+  <si>
+    <t>[40, 2691, 77.25%, 3%]
+A04:2021 Insecure Design</t>
+  </si>
+  <si>
+    <t>[20, 789, 89.58%, 4.51%]
+A05:2021 Security Misconfiguration</t>
+  </si>
+  <si>
+    <t>[3, 0, 51.78%, 8.77%]
+A06:2021 Vulnerable and Outdated Components</t>
+  </si>
+  <si>
+    <t>[22, 3897, 79.51%, 2.55%]
+A07:2021 Identification and Authentication Failures</t>
+  </si>
+  <si>
+    <t>[10, 1152, 75.04%, 2.05%]
+A08:2021 Software and Data Integrity Failures</t>
+  </si>
+  <si>
+    <t>[4, 242, 53.67%, 6.51%]
+A09:2021 Security Logging and Monitoring Failures</t>
+  </si>
+  <si>
+    <t>[1, 385, 67.72%, 2.72%]
+A10:2021 Server-Side Request Forgery (SSRF)</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>Requisito</t>
+  </si>
+  <si>
+    <t>A01-001:2021</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>Situación</t>
+  </si>
+  <si>
+    <t>Revisión</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Situation</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>NON-TECHNICAL</t>
+  </si>
+  <si>
+    <t>TECHNICAL</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Deny by default</t>
+  </si>
+  <si>
+    <t>A01-002:2021</t>
+  </si>
+  <si>
+    <t>Session identifiers must be invalidated on the server after logout</t>
+  </si>
+  <si>
+    <t>A02-001:2021</t>
+  </si>
+  <si>
+    <t>Classify data processed</t>
+  </si>
+  <si>
+    <t>A02-002:2021</t>
+  </si>
+  <si>
+    <t>Classify data stored</t>
+  </si>
+  <si>
+    <t>A02-003:2021</t>
+  </si>
+  <si>
+    <t>Encrypt all sensitive data at rest</t>
+  </si>
+  <si>
+    <t>A03-001:2021</t>
+  </si>
+  <si>
+    <t>Use SQL controls within queries</t>
+  </si>
+  <si>
+    <t>A04-001:2021</t>
+  </si>
+  <si>
+    <t>Register the user story (learn from mistakes and promote improvements)</t>
+  </si>
+  <si>
+    <t>A05-001:2021</t>
+  </si>
+  <si>
+    <t>Remove or don't install unused frameworks, features, components…</t>
+  </si>
+  <si>
+    <t>A06-001:2021</t>
+  </si>
+  <si>
+    <t>Inventory the versions of frameworks, libraries, dependencies…</t>
+  </si>
+  <si>
+    <t>A07-001:2021</t>
+  </si>
+  <si>
+    <t>Implement multi-factor authentication</t>
+  </si>
+  <si>
+    <t>A07-002:2021</t>
+  </si>
+  <si>
+    <t>Do not ship or deploy default credentials</t>
+  </si>
+  <si>
+    <t>A08-001:2021</t>
+  </si>
+  <si>
+    <t>Consume trusted repositories</t>
+  </si>
+  <si>
+    <t>A09-001:2021</t>
+  </si>
+  <si>
+    <t>Log the user context (login, access control, server-side input validation failures…)</t>
+  </si>
+  <si>
+    <t>A10-001:2021</t>
+  </si>
+  <si>
+    <t>Disable HTTP redirections</t>
   </si>
 </sst>
 </file>
@@ -247,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -258,11 +488,211 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -574,11 +1004,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6DEF20-5F79-4E2B-9671-B931CCB89B80}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +1022,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -606,100 +1036,142 @@
     </row>
     <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -711,26 +1183,332 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78CD5F7-2E9B-4D2D-A6F4-588FBD159FA4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{E78CD5F7-2E9B-4D2D-A6F4-588FBD159FA4}"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"ALMOST"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"CASI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{A205EC22-8A25-4C7E-A492-0C899909ECC2}">
+      <formula1>"OK,ALMOST,NOK"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{47CBEBE0-DDC9-4877-8A56-580223BE0DE6}">
+      <formula1>"TECHNICAL,NON-TECHNICAL"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F829EEB-24E6-439B-9BE3-D7CCDCFECC46}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F5" xr:uid="{2F829EEB-24E6-439B-9BE3-D7CCDCFECC46}"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>"CASI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{D3066075-2186-4DF1-A070-0F59DF399C64}">
+      <formula1>"OK,CASI,NOK"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{0F85556C-7EF1-4047-ADDA-B4D70FD4D68B}">
+      <formula1>"TÉCNICO,NO-TÉCNICO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>